--- a/项目/实验结果.xlsx
+++ b/项目/实验结果.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xicheng_jiang\Documents\毕业设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xicheng_jiang\Documents\毕业设计\项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{ACC284AC-1775-490F-8389-57ED7C8BED33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9EF58E-4054-4E9C-93E4-B45904B3A2AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{826E2870-D0D9-43EF-A02E-73D8916BB82F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>每类训练样本数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,2452 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.63570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9E0-4641-BDB7-310D338629AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IsoP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.76790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C9E0-4641-BDB7-310D338629AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.66590000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70709999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68230000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76549999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80889999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C9E0-4641-BDB7-310D338629AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OIsoP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.79690000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78259999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85950000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90890000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C9E0-4641-BDB7-310D338629AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1822820671"/>
+        <c:axId val="1818088959"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1822820671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1818088959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1818088959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1822820671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$15:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$15:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1842-42B1-8A10-1DF5237A933D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IsoP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$15:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$15:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1842-42B1-8A10-1DF5237A933D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$15:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$15:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1842-42B1-8A10-1DF5237A933D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OIsoP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$15:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$15:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1842-42B1-8A10-1DF5237A933D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1888483535"/>
+        <c:axId val="1888781631"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1888483535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888781631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1888781631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888483535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F927B34-3A43-430A-ABC4-3FD3D20B4FAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33279D82-AD6C-4695-B270-9731278326E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,10 +2877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD818469-4E05-4E2C-A8AC-35A896962533}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -443,7 +2889,7 @@
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +2913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -487,13 +2933,13 @@
         <v>0.76790000000000003</v>
       </c>
       <c r="G2" s="1">
-        <v>0.8679</v>
+        <v>0.66590000000000005</v>
       </c>
       <c r="H2" s="1">
-        <v>0.87790000000000001</v>
+        <v>0.79690000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -513,13 +2959,13 @@
         <v>0.75419999999999998</v>
       </c>
       <c r="G3" s="1">
-        <v>0.85419999999999996</v>
+        <v>0.70709999999999995</v>
       </c>
       <c r="H3" s="1">
-        <v>0.85419999999999996</v>
+        <v>0.78259999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -539,13 +2985,13 @@
         <v>0.74</v>
       </c>
       <c r="G4" s="1">
-        <v>0.84</v>
+        <v>0.68230000000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -565,16 +3011,16 @@
         <v>0.71879999999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>0.81879999999999997</v>
+        <v>0.67279999999999995</v>
       </c>
       <c r="H5" s="1">
-        <v>0.81879999999999997</v>
+        <v>0.75890000000000002</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -594,16 +3040,16 @@
         <v>0.81669999999999998</v>
       </c>
       <c r="G6" s="1">
-        <v>0.8367</v>
+        <v>0.72270000000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>0.8367</v>
+        <v>0.8407</v>
       </c>
       <c r="J6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -623,13 +3069,13 @@
         <v>0.8125</v>
       </c>
       <c r="G7" s="1">
-        <v>0.82250000000000001</v>
+        <v>0.76549999999999996</v>
       </c>
       <c r="H7" s="1">
-        <v>0.82250000000000001</v>
+        <v>0.85950000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -649,13 +3095,13 @@
         <v>0.85</v>
       </c>
       <c r="G8" s="1">
-        <v>0.87</v>
+        <v>0.80889999999999995</v>
       </c>
       <c r="H8" s="1">
-        <v>0.87</v>
+        <v>0.90890000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -666,7 +3112,7 @@
         <v>0.76790000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -677,7 +3123,7 @@
         <v>0.75419999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -688,7 +3134,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -699,7 +3145,7 @@
         <v>0.71879999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -709,8 +3155,21 @@
       <c r="C14" s="1">
         <v>0.81669999999999998</v>
       </c>
+      <c r="G14" s="2"/>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -720,8 +3179,23 @@
       <c r="C15" s="1">
         <v>0.8125</v>
       </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>27</v>
+      </c>
+      <c r="J15">
+        <v>28</v>
+      </c>
+      <c r="K15">
+        <v>21</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -730,12 +3204,113 @@
       </c>
       <c r="C16" s="1">
         <v>0.85</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <v>26</v>
+      </c>
+      <c r="J16">
+        <v>27</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>21</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>27</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>29</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>27</v>
+      </c>
+      <c r="I19">
+        <v>24</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>21</v>
+      </c>
+      <c r="I20">
+        <v>21</v>
+      </c>
+      <c r="J20">
+        <v>27</v>
+      </c>
+      <c r="K20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>26</v>
+      </c>
+      <c r="I21">
+        <v>27</v>
+      </c>
+      <c r="J21">
+        <v>24</v>
+      </c>
+      <c r="K21">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -761,6 +3336,42 @@
               <xm:f>Sheet1!F1:F8</xm:f>
               <xm:sqref>N1</xm:sqref>
             </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D2:D9</xm:f>
+              <xm:sqref>L2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!E2:E9</xm:f>
+              <xm:sqref>M2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!F2:F9</xm:f>
+              <xm:sqref>N2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D3:D10</xm:f>
+              <xm:sqref>L3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!E3:E10</xm:f>
+              <xm:sqref>M3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!F3:F10</xm:f>
+              <xm:sqref>N3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D4:D11</xm:f>
+              <xm:sqref>L4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!E4:E11</xm:f>
+              <xm:sqref>M4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!F4:F11</xm:f>
+              <xm:sqref>N4</xm:sqref>
+            </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
       </x14:sparklineGroups>
